--- a/eg1_adavanced.xlsx
+++ b/eg1_adavanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4878755-41A7-EC42-AB90-6EE28DCB85E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8584F311-7C0F-514F-9737-262FCED64773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,9 +167,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3657,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3926,25 +3926,25 @@
         <v>7</v>
       </c>
       <c r="H6" s="17">
-        <v>0.640144990046009</v>
+        <v>0.64066361452207798</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="17">
-        <v>0.50265579881425104</v>
+        <v>0.50313262626008604</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="17">
-        <v>0.40627622604370101</v>
+        <v>0.41383600234985302</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="17">
-        <v>0.57693266868591297</v>
+        <v>0.60728979110717696</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>7</v>
@@ -3973,25 +3973,25 @@
         <v>7</v>
       </c>
       <c r="H7" s="17">
-        <v>0.63772967572925898</v>
+        <v>0.63824830020532897</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="17">
-        <v>0.506521298766619</v>
+        <v>0.50694917358378699</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="17">
-        <v>0.44873714447021401</v>
+        <v>0.41314196586608798</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="17">
-        <v>0.57738018035888605</v>
+        <v>0.61082482337951605</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>7</v>
@@ -4020,25 +4020,25 @@
         <v>7</v>
       </c>
       <c r="H8" s="17">
-        <v>0.63860529776333197</v>
+        <v>0.63912392223940195</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="17">
-        <v>0.50461928474951401</v>
+        <v>0.505047159566682</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="17">
-        <v>0.40481495857238697</v>
+        <v>0.41753792762756298</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="17">
-        <v>0.57509708404541005</v>
+        <v>0.60927605628967196</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>7</v>
@@ -4067,25 +4067,25 @@
         <v>7</v>
       </c>
       <c r="H9" s="17">
-        <v>0.63818749900577898</v>
+        <v>0.63870612348184896</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="17">
-        <v>0.50563262331534098</v>
+        <v>0.50606049813250797</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="17">
-        <v>0.40392494201660101</v>
+        <v>0.42397594451904203</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="17">
-        <v>0.58724403381347601</v>
+        <v>0.61078810691833496</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>7</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="H28" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63866686563609476</v>
+        <v>0.63918549011216452</v>
       </c>
       <c r="I28" s="17" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="J28" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50485725141143123</v>
+        <v>0.50529736438576567</v>
       </c>
       <c r="K28" s="17" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="L28" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41593831777572576</v>
+        <v>0.41712296009063654</v>
       </c>
       <c r="M28" s="17" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="N28" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5791634917259213</v>
+        <v>0.60954469442367498</v>
       </c>
       <c r="O28" s="17" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -9380,7 +9380,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A2" sqref="A2:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9461,28 +9461,28 @@
         <v>22.630702463727701</v>
       </c>
       <c r="H2" s="17">
-        <v>61.591543149106002</v>
+        <v>61.592116798828499</v>
       </c>
       <c r="I2" s="17">
-        <v>3.2786018651173401</v>
+        <v>3.2791755148398698</v>
       </c>
       <c r="J2" s="17">
-        <v>50.1239532721914</v>
+        <v>50.1244191268406</v>
       </c>
       <c r="K2" s="17">
-        <v>2.7686530892635801</v>
+        <v>2.7691189439128601</v>
       </c>
       <c r="L2" s="17">
-        <v>0.40947604179382302</v>
+        <v>0.41599988937377902</v>
       </c>
       <c r="M2" s="17">
-        <v>0.39684987068176197</v>
+        <v>0.41009211540222101</v>
       </c>
       <c r="N2" s="17">
-        <v>0.58831596374511697</v>
+        <v>0.60596203804016102</v>
       </c>
       <c r="O2" s="17">
-        <v>0.58572602272033603</v>
+        <v>0.61294317245483398</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -9508,28 +9508,28 @@
         <v>25.097082738143399</v>
       </c>
       <c r="H3" s="17">
-        <v>99.164259229234602</v>
+        <v>99.1648328789571</v>
       </c>
       <c r="I3" s="17">
-        <v>3.6068223555189398</v>
+        <v>3.60739600524147</v>
       </c>
       <c r="J3" s="17">
-        <v>80.651437679050701</v>
+        <v>80.651904039657893</v>
       </c>
       <c r="K3" s="17">
-        <v>3.0366990049731299</v>
+        <v>3.0371648596224099</v>
       </c>
       <c r="L3" s="17">
-        <v>0.40526294708251898</v>
+        <v>0.41363263130187899</v>
       </c>
       <c r="M3" s="17">
-        <v>0.39282417297363198</v>
+        <v>0.40446496009826599</v>
       </c>
       <c r="N3" s="17">
-        <v>0.58367609977722101</v>
+        <v>0.61672019958496005</v>
       </c>
       <c r="O3" s="17">
-        <v>0.56359314918518</v>
+        <v>0.59898996353149403</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -9555,28 +9555,28 @@
         <v>15.028309828479999</v>
       </c>
       <c r="H4" s="17">
-        <v>48.360267912431098</v>
+        <v>48.360841562153603</v>
       </c>
       <c r="I4" s="17">
-        <v>2.28342572055963</v>
+        <v>2.2839993702821602</v>
       </c>
       <c r="J4" s="17">
-        <v>39.371963998957</v>
+        <v>39.372429853606299</v>
       </c>
       <c r="K4" s="17">
-        <v>1.93051701119761</v>
+        <v>1.9310038610659099</v>
       </c>
       <c r="L4" s="17">
-        <v>0.40771198272705</v>
+        <v>0.416578769683837</v>
       </c>
       <c r="M4" s="17">
-        <v>0.41142392158508301</v>
+        <v>0.40014219284057601</v>
       </c>
       <c r="N4" s="17">
-        <v>0.57997083663940396</v>
+        <v>0.59475088119506803</v>
       </c>
       <c r="O4" s="17">
-        <v>0.55881881713867099</v>
+        <v>0.58619189262390103</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -9602,28 +9602,28 @@
         <v>12.8965754115814</v>
       </c>
       <c r="H5" s="17">
-        <v>24.740970946862401</v>
+        <v>24.741544596584902</v>
       </c>
       <c r="I5" s="17">
-        <v>2.00723047853015</v>
+        <v>2.0078041282526802</v>
       </c>
       <c r="J5" s="17">
-        <v>20.1952589826011</v>
+        <v>20.195724837250399</v>
       </c>
       <c r="K5" s="17">
-        <v>1.69310721426574</v>
+        <v>1.6935940641340399</v>
       </c>
       <c r="L5" s="17">
-        <v>0.40260386466979903</v>
+        <v>0.41525506973266602</v>
       </c>
       <c r="M5" s="17">
-        <v>0.389305830001831</v>
+        <v>0.40555024147033603</v>
       </c>
       <c r="N5" s="17">
-        <v>0.57867288589477495</v>
+        <v>0.58830285072326605</v>
       </c>
       <c r="O5" s="17">
-        <v>0.58805108070373502</v>
+        <v>0.61151528358459395</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -10973,35 +10973,35 @@
       </c>
       <c r="H35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>58.464260309408523</v>
+        <v>58.464833959131028</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7940201049315148</v>
+        <v>2.7945937546540449</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>47.585653483200055</v>
+        <v>47.586119464338793</v>
       </c>
       <c r="K35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3572440799250152</v>
+        <v>2.3577204321838048</v>
       </c>
       <c r="L35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40626370906829778</v>
+        <v>0.41536659002304027</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.397600948810577</v>
+        <v>0.40506237745284973</v>
       </c>
       <c r="N35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58265894651412919</v>
+        <v>0.60143399238586381</v>
       </c>
       <c r="O35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57404726743698054</v>
+        <v>0.60241007804870572</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -15602,8 +15602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:K29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16812,28 +16812,28 @@
         <v>11.5212305536673</v>
       </c>
       <c r="H26" s="17">
-        <v>7.0110336610108401</v>
+        <v>7.0116073107333703</v>
       </c>
       <c r="I26" s="17">
-        <v>1.8226531849752301</v>
+        <v>1.8232248287986901</v>
       </c>
       <c r="J26" s="17">
-        <v>5.8198839466720598</v>
+        <v>5.8203498013213402</v>
       </c>
       <c r="K26" s="17">
-        <v>1.56830180066223</v>
+        <v>1.56875286570568</v>
       </c>
       <c r="L26" s="17">
-        <v>0.445047616958618</v>
+        <v>0.42006301879882801</v>
       </c>
       <c r="M26" s="17">
-        <v>0.40771698951721103</v>
+        <v>0.41577625274658198</v>
       </c>
       <c r="N26" s="17">
-        <v>0.57256007194518999</v>
+        <v>0.59328484535217196</v>
       </c>
       <c r="O26" s="17">
-        <v>0.55886483192443803</v>
+        <v>0.584383964538574</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16859,28 +16859,28 @@
         <v>14.522299251444499</v>
       </c>
       <c r="H27" s="17">
-        <v>8.2443533905882802</v>
+        <v>8.2449270403108095</v>
       </c>
       <c r="I27" s="17">
-        <v>2.23620651557462</v>
+        <v>2.2367801652971502</v>
       </c>
       <c r="J27" s="17">
-        <v>6.7823225970308396</v>
+        <v>6.78278845168012</v>
       </c>
       <c r="K27" s="17">
-        <v>1.8669426880950399</v>
+        <v>1.8674295379633401</v>
       </c>
       <c r="L27" s="17">
-        <v>0.40770626068115201</v>
+        <v>0.43327283859252902</v>
       </c>
       <c r="M27" s="17">
-        <v>0.416078090667724</v>
+        <v>0.43355989456176702</v>
       </c>
       <c r="N27" s="17">
-        <v>0.58384394645690896</v>
+        <v>0.59994816780090299</v>
       </c>
       <c r="O27" s="17">
-        <v>0.60040783882141102</v>
+        <v>0.57940196990966797</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16906,28 +16906,28 @@
         <v>18.213146722927501</v>
       </c>
       <c r="H28" s="17">
-        <v>11.121320510460301</v>
+        <v>11.1218941601828</v>
       </c>
       <c r="I28" s="17">
-        <v>2.7104040999708499</v>
+        <v>2.71097774969338</v>
       </c>
       <c r="J28" s="17">
-        <v>9.1264835655630101</v>
+        <v>9.1269494202122896</v>
       </c>
       <c r="K28" s="17">
-        <v>2.2960705789759999</v>
+        <v>2.2965364336252798</v>
       </c>
       <c r="L28" s="17">
-        <v>0.40437006950378401</v>
+        <v>0.42096614837646401</v>
       </c>
       <c r="M28" s="17">
-        <v>0.38846611976623502</v>
+        <v>0.41051697731018</v>
       </c>
       <c r="N28" s="17">
-        <v>0.576443672180175</v>
+        <v>0.59118700027465798</v>
       </c>
       <c r="O28" s="17">
-        <v>0.56270170211791903</v>
+        <v>0.59211802482604903</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -16953,28 +16953,28 @@
         <v>12.499582610944399</v>
       </c>
       <c r="H29" s="17">
-        <v>7.8159589263207501</v>
+        <v>7.8165325760432802</v>
       </c>
       <c r="I29" s="17">
-        <v>1.9884060952334599</v>
+        <v>1.98896499122979</v>
       </c>
       <c r="J29" s="17">
-        <v>6.4385726206261698</v>
+        <v>6.4390384752754501</v>
       </c>
       <c r="K29" s="17">
-        <v>1.6532864838308801</v>
+        <v>1.65377333369919</v>
       </c>
       <c r="L29" s="17">
-        <v>0.409210205078125</v>
+        <v>0.42172908782958901</v>
       </c>
       <c r="M29" s="17">
-        <v>0.39696097373962402</v>
+        <v>0.41962194442749001</v>
       </c>
       <c r="N29" s="17">
-        <v>0.582256078720092</v>
+        <v>0.59144401550292902</v>
       </c>
       <c r="O29" s="17">
-        <v>0.55880403518676702</v>
+        <v>0.58099603652954102</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -17568,35 +17568,35 @@
       </c>
       <c r="H41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5481666220950423</v>
+        <v>8.5487402718175645</v>
       </c>
       <c r="I41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1894174739385401</v>
+        <v>2.1899869337547528</v>
       </c>
       <c r="J41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>7.04181568247302</v>
+        <v>7.0422815371223004</v>
       </c>
       <c r="K41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8461503878910375</v>
+        <v>1.8466230427483725</v>
       </c>
       <c r="L41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41658353805541976</v>
+        <v>0.42400777339935247</v>
       </c>
       <c r="M41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40230554342269853</v>
+        <v>0.41986876726150474</v>
       </c>
       <c r="N41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57877594232559149</v>
+        <v>0.59396600723266546</v>
       </c>
       <c r="O41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57019460201263383</v>
+        <v>0.58422499895095803</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">

--- a/eg1_adavanced.xlsx
+++ b/eg1_adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8584F311-7C0F-514F-9737-262FCED64773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA017DF-1413-334B-A40A-5291D14BD48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="11640" yWindow="6520" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -3658,7 +3658,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9380,7 +9380,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15602,8 +15602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
